--- a/medicine/Maladies infectieuses/Confinement_lié_à_la_pandémie_de_Covid-19_en_Espagne/Confinement_lié_à_la_pandémie_de_Covid-19_en_Espagne.xlsx
+++ b/medicine/Maladies infectieuses/Confinement_lié_à_la_pandémie_de_Covid-19_en_Espagne/Confinement_lié_à_la_pandémie_de_Covid-19_en_Espagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Confinement_li%C3%A9_%C3%A0_la_pand%C3%A9mie_de_Covid-19_en_Espagne</t>
+          <t>Confinement_lié_à_la_pandémie_de_Covid-19_en_Espagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le confinement de la population espagnole désigne l'ensemble des mesures d'hygiène et de distanciation sociale, dites « barrières », définies au niveau national et local en réponse à la pandémie de Covid-19 en Espagne.
-Il est ordonné par le gouvernement espagnol à compter du 15 mars 2020 dans le cadre des mesures d'urgence (état d'alerte) pour lutter contre l'épidémie de coronavirus dans le pays[1],[2]. Tous les habitants sont tenus de rester dans leur logement, sauf pour acheter de la nourriture et des médicaments, travailler ou se rendre aux urgences[3],[4]. Les restrictions de la quarantaine ont rendu obligatoire la fermeture temporaire des magasins et des entreprises « non essentiels », y compris les bars, restaurants, cafés, cinémas, commerces et commerces de détail[1]. 
-L'annonce est intervenue après une augmentation significative du nombre de cas confirmés de COVID-19 en Espagne, passant de 3 146 cas à 5 232 cas dans la journée du 13 mars 2020[5]. 
-Cette « décision extraordinaire », selon le président du gouvernement d'Espagne, Pedro Sánchez, est nécessaire car l'Espagne fait face à une « crise sanitaire, sociale et économique »[1].
+Il est ordonné par le gouvernement espagnol à compter du 15 mars 2020 dans le cadre des mesures d'urgence (état d'alerte) pour lutter contre l'épidémie de coronavirus dans le pays,. Tous les habitants sont tenus de rester dans leur logement, sauf pour acheter de la nourriture et des médicaments, travailler ou se rendre aux urgences,. Les restrictions de la quarantaine ont rendu obligatoire la fermeture temporaire des magasins et des entreprises « non essentiels », y compris les bars, restaurants, cafés, cinémas, commerces et commerces de détail. 
+L'annonce est intervenue après une augmentation significative du nombre de cas confirmés de COVID-19 en Espagne, passant de 3 146 cas à 5 232 cas dans la journée du 13 mars 2020. 
+Cette « décision extraordinaire », selon le président du gouvernement d'Espagne, Pedro Sánchez, est nécessaire car l'Espagne fait face à une « crise sanitaire, sociale et économique ».
 </t>
         </is>
       </c>
